--- a/model v screenline.xlsx
+++ b/model v screenline.xlsx
@@ -471,11 +471,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="64187776"/>
-        <c:axId val="64197760"/>
+        <c:axId val="106842368"/>
+        <c:axId val="107250048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="64187776"/>
+        <c:axId val="106842368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -484,7 +484,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64197760"/>
+        <c:crossAx val="107250048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -492,7 +492,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64197760"/>
+        <c:axId val="107250048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -503,7 +503,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64187776"/>
+        <c:crossAx val="106842368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -513,6 +513,229 @@
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>210.875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>621</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>105</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="110211456"/>
+        <c:axId val="110189184"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="110211456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="110189184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="110189184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="110211456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -552,6 +775,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -850,7 +1103,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="B2" sqref="B2:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
